--- a/StructureDefinition-EncounterFacility.xlsx
+++ b/StructureDefinition-EncounterFacility.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-06T04:28:30+00:00</t>
+    <t>2025-10-06T14:14:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterFacility.xlsx
+++ b/StructureDefinition-EncounterFacility.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/EncounterFacility</t>
+    <t>https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/EncounterFacility</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-06T14:14:26+00:00</t>
+    <t>2025-10-07T08:34:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1624,7 +1624,7 @@
     <t>Category or kind of location after discharge.</t>
   </si>
   <si>
-    <t>https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/ValueSet/DispositionVS</t>
+    <t>https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/ValueSet/DispositionVS</t>
   </si>
   <si>
     <t>.dischargeDispositionCode</t>
@@ -2180,7 +2180,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="64.6015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="60.35546875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-EncounterFacility.xlsx
+++ b/StructureDefinition-EncounterFacility.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T08:34:02+00:00</t>
+    <t>2025-10-07T09:19:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterFacility.xlsx
+++ b/StructureDefinition-EncounterFacility.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T09:19:43+00:00</t>
+    <t>2025-10-07T09:49:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterFacility.xlsx
+++ b/StructureDefinition-EncounterFacility.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T09:49:39+00:00</t>
+    <t>2025-10-07T15:24:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterFacility.xlsx
+++ b/StructureDefinition-EncounterFacility.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T15:24:26+00:00</t>
+    <t>2025-10-08T01:21:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterFacility.xlsx
+++ b/StructureDefinition-EncounterFacility.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T01:21:21+00:00</t>
+    <t>2025-10-08T01:44:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterFacility.xlsx
+++ b/StructureDefinition-EncounterFacility.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T01:44:50+00:00</t>
+    <t>2025-10-08T02:57:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterFacility.xlsx
+++ b/StructureDefinition-EncounterFacility.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T02:57:10+00:00</t>
+    <t>2025-10-09T04:26:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterFacility.xlsx
+++ b/StructureDefinition-EncounterFacility.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T04:26:27+00:00</t>
+    <t>2025-10-09T07:33:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterFacility.xlsx
+++ b/StructureDefinition-EncounterFacility.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T07:33:25+00:00</t>
+    <t>2025-10-09T07:37:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EncounterFacility.xlsx
+++ b/StructureDefinition-EncounterFacility.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T07:37:26+00:00</t>
+    <t>2025-10-09T08:41:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
